--- a/docs/조이런 테스트/테스트 리스트 양식.xlsx
+++ b/docs/조이런 테스트/테스트 리스트 양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\internship-2020h2\docs\조이런 테스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC2BC77-2B27-4C64-AEAD-AAC5B8272C74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4CB725-E951-4B6B-915D-4E340227B535}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,32 +247,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">            검수자 :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="22"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전면 화면에 표시되는 캐릭터는 사용자의 발 속도에 따라 달리기 애니메이션 단계가 변경되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            검수자 :  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -570,29 +549,32 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -872,7 +854,7 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D1" sqref="D1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -886,22 +868,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="20"/>
-      <c r="D1" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="26"/>
+      <c r="D1" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="21"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="22" t="s">
@@ -927,7 +909,7 @@
       <c r="B4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
@@ -936,7 +918,7 @@
       <c r="B5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
     </row>
@@ -945,7 +927,7 @@
       <c r="B6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
@@ -954,7 +936,7 @@
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
@@ -963,7 +945,7 @@
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
@@ -972,7 +954,7 @@
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
@@ -981,7 +963,7 @@
       <c r="B10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
@@ -990,7 +972,7 @@
       <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
@@ -999,7 +981,7 @@
       <c r="B12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
@@ -1008,14 +990,14 @@
       <c r="B13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
@@ -1026,7 +1008,7 @@
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
@@ -1035,7 +1017,7 @@
       <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
@@ -1044,7 +1026,7 @@
       <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
@@ -1053,7 +1035,7 @@
       <c r="B18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
@@ -1062,7 +1044,7 @@
       <c r="B19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
@@ -1071,7 +1053,7 @@
       <c r="B20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
@@ -1080,7 +1062,7 @@
       <c r="B21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
@@ -1089,7 +1071,7 @@
       <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
@@ -1098,7 +1080,7 @@
       <c r="B23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
@@ -1107,16 +1089,16 @@
       <c r="B24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="C25" s="5"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
@@ -1125,7 +1107,7 @@
       <c r="B26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
@@ -1134,7 +1116,7 @@
       <c r="B27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
@@ -1143,7 +1125,7 @@
       <c r="B28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
@@ -1152,7 +1134,7 @@
       <c r="B29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
@@ -1161,7 +1143,7 @@
       <c r="B30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
@@ -1170,7 +1152,7 @@
       <c r="B31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
@@ -1179,14 +1161,14 @@
       <c r="B32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
@@ -1197,7 +1179,7 @@
       <c r="B34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="4"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
@@ -1206,7 +1188,7 @@
       <c r="B35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="4"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
@@ -1215,7 +1197,7 @@
       <c r="B36" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="4"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
@@ -1224,7 +1206,7 @@
       <c r="B37" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="4"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
@@ -1233,7 +1215,7 @@
       <c r="B38" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="4"/>
+      <c r="C38" s="5"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
@@ -1242,7 +1224,7 @@
       <c r="B39" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="4"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
@@ -1251,7 +1233,7 @@
       <c r="B40" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="4"/>
+      <c r="C40" s="5"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
@@ -1260,7 +1242,7 @@
       <c r="B41" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="4"/>
+      <c r="C41" s="5"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
@@ -1269,7 +1251,7 @@
       <c r="B42" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="4"/>
+      <c r="C42" s="5"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
@@ -1278,7 +1260,7 @@
       <c r="B43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="4"/>
+      <c r="C43" s="5"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
@@ -1287,7 +1269,7 @@
       <c r="B44" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="4"/>
+      <c r="C44" s="5"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
@@ -1296,14 +1278,14 @@
       <c r="B45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="4"/>
+      <c r="C45" s="5"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="2"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+      <c r="C46" s="5"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
@@ -1314,7 +1296,7 @@
       <c r="B47" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="4"/>
+      <c r="C47" s="5"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
@@ -1323,7 +1305,7 @@
       <c r="B48" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="4"/>
+      <c r="C48" s="5"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
@@ -1332,7 +1314,7 @@
       <c r="B49" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="4"/>
+      <c r="C49" s="5"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
     </row>
@@ -1341,7 +1323,7 @@
       <c r="B50" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="16"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
     </row>

--- a/docs/조이런 테스트/테스트 리스트 양식.xlsx
+++ b/docs/조이런 테스트/테스트 리스트 양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\internship-2020h2\docs\조이런 테스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4CB725-E951-4B6B-915D-4E340227B535}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDE691B-B5DB-4564-8280-0728BD6ACB8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">게임 시작시 화면 좌상단 영역에 제한시간이 표시되며 밀리초 단위로 카운트 되는가? </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게임 시작시 화면 우상단 영역에 라이프 상태바가 표시되며, 50으로 시작하는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,10 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하트를 획득하면 라이프 증가 외에도 1개당 1점씩 점수(콤보)가 늘어나는가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>하트 1쌍을 획득하면 1점이 추가되어 3점이 증가하고, 4쌍을 모두 획득하면 15점을 획득하게 된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,6 +244,10 @@
   </si>
   <si>
     <t xml:space="preserve">            검수자 :  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">게임 시작시 화면 좌상단 영역에 제한시간이 표시되며 0.01초 단위로 카운트 되는가? </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,18 +545,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -575,6 +559,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -851,10 +847,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -868,22 +864,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="26"/>
+      <c r="A1" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="31"/>
       <c r="C1" s="20"/>
-      <c r="D1" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="31"/>
+      <c r="D1" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="21"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="22" t="s">
@@ -904,28 +900,28 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="29"/>
+        <v>39</v>
+      </c>
+      <c r="C4" s="25"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="29"/>
+        <v>41</v>
+      </c>
+      <c r="C5" s="25"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -934,7 +930,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="8" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="4"/>
@@ -943,7 +939,7 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -952,7 +948,7 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4"/>
@@ -961,7 +957,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -970,7 +966,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="4"/>
@@ -979,7 +975,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -988,7 +984,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
@@ -1003,10 +999,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
@@ -1015,7 +1011,7 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -1024,7 +1020,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="4"/>
@@ -1033,7 +1029,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -1042,7 +1038,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="4"/>
@@ -1051,7 +1047,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -1060,7 +1056,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="4"/>
@@ -1069,7 +1065,7 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -1078,7 +1074,7 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="4"/>
@@ -1087,7 +1083,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -1096,7 +1092,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="4"/>
@@ -1105,7 +1101,7 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -1114,7 +1110,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="4"/>
@@ -1123,7 +1119,7 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -1132,7 +1128,7 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="5"/>
       <c r="B29" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="4"/>
@@ -1141,7 +1137,7 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="5"/>
       <c r="B30" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -1150,7 +1146,7 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="4"/>
@@ -1159,7 +1155,7 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -1174,10 +1170,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="4"/>
@@ -1186,7 +1182,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="5"/>
       <c r="B35" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="4"/>
@@ -1195,7 +1191,7 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="5"/>
       <c r="B36" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="4"/>
@@ -1204,7 +1200,7 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="5"/>
       <c r="B37" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="4"/>
@@ -1213,7 +1209,7 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="4"/>
@@ -1222,7 +1218,7 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="4"/>
@@ -1231,7 +1227,7 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="4"/>
@@ -1240,34 +1236,34 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="5"/>
       <c r="B41" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A42" s="5"/>
+      <c r="A42" s="2"/>
       <c r="B42" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A43" s="2"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44" s="5"/>
+      <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="4"/>
@@ -1275,26 +1271,26 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
-      <c r="B45" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B45" s="4"/>
       <c r="C45" s="5"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46" s="2"/>
-      <c r="B46" s="4"/>
+      <c r="A46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="C46" s="5"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="4"/>
@@ -1303,45 +1299,36 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="5"/>
       <c r="B48" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A49" s="5"/>
-      <c r="B49" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50" s="14"/>
-      <c r="B50" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A51" s="17"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
+      <c r="B51" s="12"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B52" s="12"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B53" s="12"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B54" s="13"/>
+      <c r="B53" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1350,6 +1337,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>